--- a/Data/partial_data.xlsx
+++ b/Data/partial_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kormany.milan/Developer/junction/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kormany.milan/Developer/junction/files/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62242766-2897-5347-B1AE-FED5FF4C67D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA2938B-BBDB-5D41-B542-B2EB3E47649E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16840" xr2:uid="{02567234-CB58-8B4B-B931-C025C325518B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Countries</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Spain</t>
+  </si>
+  <si>
+    <t>GDP Per Capita PPP</t>
   </si>
 </sst>
 </file>
@@ -492,891 +495,963 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2A4C25-1E87-6842-BAB7-B0AE4C7A732B}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1">
+        <v>4868.9583329999996</v>
+      </c>
+      <c r="C2" s="1">
         <v>4864.1666670000004</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>649.37297290000004</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>198.89694789999999</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>297.05514790000001</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>751.6210979</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>409.28463749999997</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>286.05130209999999</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>680.19347919999996</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>117.6827229</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>467.66344789999999</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>62.614804169999999</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>545.17726459999994</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>403.34450829999997</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1">
+        <v>4910.9083330000003</v>
+      </c>
+      <c r="C3" s="1">
         <v>4955</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>827.8809268</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>262.53715949999997</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>288.5649737</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>843.54672440000002</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>410.69926390000001</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>378.33637800000002</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>527.18600960000003</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>196.38722430000001</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>407.21251899999999</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>25.684050580000001</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>330.30769450000003</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>412.56540910000001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1">
+        <v>3546.3416670000001</v>
+      </c>
+      <c r="C4" s="1">
         <v>3284.166667</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>551.7043731</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>192.14079150000001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>233.20742799999999</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>291.79299229999998</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>209.7306462</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>93.481566330000007</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>541.24266520000003</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>111.28420149999999</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>258.24460019999998</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>138.5555689</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>671.96081900000001</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>253.0669413</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1">
+        <v>3515.958333</v>
+      </c>
+      <c r="C5" s="1">
         <v>3464.166667</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>734.62433420000002</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>193.79962330000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>194.7137725</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>589.62621249999995</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>236.2724</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>190.70558</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>508.54821329999999</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>155.93275209999999</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>271.04522789999999</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>42.191499999999998</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>193.16675079999999</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>205.33196670000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1">
+        <v>4583.8833329999998</v>
+      </c>
+      <c r="C6" s="1">
         <v>4661.6666670000004</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>705.0012567</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>271.45757099999997</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>202.37844920000001</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>843.29701680000005</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>290.02229849999998</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>281.31292020000001</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>631.33825149999996</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>145.62997350000001</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>476.6780278</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>21.681768170000002</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>320.0925732</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>394.9932268</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1">
+        <v>4227.3916669999999</v>
+      </c>
+      <c r="C7" s="1">
         <v>4320.8333329999996</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>699.84469039999999</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>189.9789815</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>168.29246230000001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>737.29938059999995</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>250.59977799999999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>192.26177300000001</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>669.61883999999998</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>128.1745153</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>339.2481813</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>15.894992670000001</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>311.68558760000002</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>524.40793629999996</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1">
+        <v>4827.3</v>
+      </c>
+      <c r="C8" s="1">
         <v>4973.3333329999996</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>610.99136099999998</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>217.03540799999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>208.34626800000001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1217.44506</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>293.98257000000001</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>277.56975</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>721.39171199999998</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>142.115712</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>469.21355999999997</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>46.921356000000003</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>190.29216600000001</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>431.99507699999998</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1">
+        <v>2607.9250000000002</v>
+      </c>
+      <c r="C9" s="1">
         <v>2617.5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>548.75957849999998</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>123.48524879999999</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>151.363967</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>329.51132380000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>101.10925229999999</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>151.62475950000001</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>340.41245029999999</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>130.03114049999999</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>108.698314</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>58.652233250000002</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>412.13038779999999</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>152.1463445</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="1">
+        <v>8871.3166669999991</v>
+      </c>
+      <c r="C10" s="1">
         <v>6620.8333329999996</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>1076.356851</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>531.21444199999996</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>444.45296500000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>1224.50784</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>484.7287427</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>567.94169299999999</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>1253.6057579999999</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>306.41527769999999</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>693.47082379999995</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>163.5870793</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>1428.2819830000001</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>696.66449780000005</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="1">
+        <v>3828</v>
+      </c>
+      <c r="C11" s="1">
         <v>3911.666667</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>744.73739999999998</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>138.03767999999999</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>280.13303999999999</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>444.73703999999998</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>325.34172000000001</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>176.66220000000001</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>586.60271999999998</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>104.38956</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>220.72247999999999</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>43.907159999999998</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>380.19695999999999</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>382.57031999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="1">
+        <v>2872.3833330000002</v>
+      </c>
+      <c r="C12" s="1">
         <v>2815.833333</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>745.01006519999999</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>226.37253050000001</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>148.4160468</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>468.11231179999999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>112.68359820000001</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>176.5941273</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>399.17511180000002</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>98.149338499999999</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>201.29662400000001</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>33.66433267</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>137.15630419999999</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>125.7816662</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1">
+        <v>3555.4416670000001</v>
+      </c>
+      <c r="C13" s="1">
         <v>3437.5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>736.68751329999998</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>234.1969426</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>220.93514519999999</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>424.98194239999998</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>292.54174030000001</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>250.01865799999999</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>500.60618670000002</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>103.4277981</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>281.91096979999998</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>42.629745579999998</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>179.40758650000001</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>288.16854710000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1">
+        <v>11229.483329999999</v>
+      </c>
+      <c r="C14" s="1">
         <v>6935.8333329999996</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>1419.4066929999999</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>1175.726905</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>719.80988170000001</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>1477.8000070000001</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>870.28495829999997</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>296.45836000000003</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>2029.1676379999999</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>189.77826830000001</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>615.37568669999996</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>133.63085169999999</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>806.27690329999996</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>1495.7671800000001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1">
+        <v>3976.208333</v>
+      </c>
+      <c r="C15" s="1">
         <v>3712.5</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>710.58819129999995</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>154.47569379999999</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>168.8298058</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>397.97869209999999</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>347.52060829999999</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>193.99920460000001</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>493.12935750000003</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>158.29285379999999</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>315.27355879999999</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>105.1707104</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>595.4371979</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>335.51245920000002</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1">
+        <v>5313.9083330000003</v>
+      </c>
+      <c r="C16" s="1">
         <v>5280</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>817.86363159999996</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>199.590397</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>339.45246429999997</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>985.57057859999998</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>419.21422840000002</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>145.06969749999999</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>695.11234909999996</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>162.44617779999999</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>526.60831580000001</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>24.072004750000001</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>358.10428259999998</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>640.75106679999999</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="1">
+        <v>2990.6833329999999</v>
+      </c>
+      <c r="C17" s="1">
         <v>2955.833333</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>648.97828330000004</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>113.4964325</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>164.188515</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>282.32050670000001</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>214.1030198</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>201.9907523</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>455.75023320000003</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>90.468170830000005</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>146.9322722</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>57.750095170000002</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>306.4254143</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>308.33945169999998</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="1">
+        <v>2750.8583330000001</v>
+      </c>
+      <c r="C18" s="1">
         <v>2704.166667</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>631.84465060000002</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>164.25375109999999</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>146.8683264</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>507.28578529999999</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>227.11086399999999</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>86.074357250000006</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>194.0180383</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>113.91304359999999</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>231.1821343</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>43.821173250000001</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>178.53070579999999</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>225.95550349999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1">
+        <v>3635.3916669999999</v>
+      </c>
+      <c r="C19" s="1">
         <v>3588.333333</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>640.81048910000004</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>183.40550959999999</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>246.6613246</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>424.25020749999999</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>253.93210790000001</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>197.36541360000001</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>584.60733389999996</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>124.58487239999999</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>286.50521730000003</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>49.768511920000002</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>309.69901609999999</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>333.87437069999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="1">
+        <v>3397.9416670000001</v>
+      </c>
+      <c r="C20" s="1">
         <v>3415</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>750.06164349999995</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>103.22946779999999</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>201.12416730000001</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>473.808986</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>192.66329250000001</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>144.95619149999999</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>447.2710616</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>117.90857579999999</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>173.87267510000001</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>52.90595175</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>489.88125009999999</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>250.32636260000001</v>
       </c>
     </row>
